--- a/setups/sakt_loop_all.xlsx
+++ b/setups/sakt_loop_all.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,21 +570,6 @@
           <t>best_epoch</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>valid3</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>train3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -634,28 +619,28 @@
         <v>1000</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8307301912510616</v>
+        <v>0.8331453956113949</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8325901868758286</v>
+        <v>0.8331346822768653</v>
       </c>
       <c r="U2" t="n">
-        <v>0.829102932038061</v>
+        <v>0.8301973593282213</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8372577151981186</v>
+        <v>0.8372378786578156</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -671,15 +656,8 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.8310465823243364</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.8393793749428312</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -729,28 +707,28 @@
         <v>1000</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>50</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8295360550672248</v>
+        <v>0.8335836445659477</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8321256937791163</v>
+        <v>0.8331859787909033</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8287638233471516</v>
+        <v>0.8317650993409981</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8367171472666717</v>
+        <v>0.8362549784635318</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -766,15 +744,8 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>69</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.8330660534419828</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.8391228419889858</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -815,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M4" t="n">
         <v>10</v>
@@ -824,15 +795,15 @@
         <v>1000</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>50</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -856,12 +827,7 @@
           <t>save/sakt/statics/</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>71</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -911,28 +877,28 @@
         <v>1000</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>50</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7299089745472779</v>
+        <v>0.7312366907209209</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7272954103736031</v>
+        <v>0.7298917422647643</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7373939916254562</v>
+        <v>0.7390076787014428</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7351787831780503</v>
+        <v>0.738478389995567</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -948,15 +914,8 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.7294012514914493</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.7386258173098734</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1006,28 +965,28 @@
         <v>1000</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>50</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7299435703658415</v>
+        <v>0.7311306978080755</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7288166519323303</v>
+        <v>0.7309291077170479</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7382350027100752</v>
+        <v>0.7403734047316761</v>
       </c>
       <c r="V6" t="n">
-        <v>0.736217456025266</v>
+        <v>0.7397707044988533</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1043,15 +1002,8 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.7304976784783547</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.7405939734883007</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1101,28 +1053,28 @@
         <v>1000</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>50</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7297417453253013</v>
+        <v>0.7306059086673935</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7297123604426031</v>
+        <v>0.7316042705118891</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7391041934050657</v>
+        <v>0.7420543660209675</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7389017681024894</v>
+        <v>0.741261905696825</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -1138,15 +1090,8 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.7311373766812226</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.7413768636719661</v>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1154,23 +1099,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ednet_small</t>
+          <t>assistments15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1187,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M8" t="n">
         <v>10</v>
@@ -1196,52 +1141,45 @@
         <v>1000</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>50</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7304747025751674</v>
+        <v>0.7238120844177179</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7301252511135846</v>
+        <v>0.7233109877766972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.742128953764937</v>
+        <v>0.7433502042444892</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7412614941791797</v>
+        <v>0.7447540471351286</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>runs/sakt/ednet_small/</t>
+          <t>runs/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>save/sakt/ednet_small/</t>
+          <t>save/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.7316798305024328</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.7433254361275832</v>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1249,11 +1187,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ednet_small</t>
+          <t>assistments15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>400</v>
@@ -1265,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1282,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M9" t="n">
         <v>10</v>
@@ -1291,52 +1229,45 @@
         <v>1000</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>50</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.728365098571838</v>
+        <v>0.7239784489941277</v>
       </c>
       <c r="T9" t="n">
-        <v>0.729725946604143</v>
+        <v>0.7258617452338744</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7394694832548833</v>
+        <v>0.7419649422270552</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7388697488416394</v>
+        <v>0.7460276979907222</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>runs/sakt/ednet_small/</t>
+          <t>runs/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>save/sakt/ednet_small/</t>
+          <t>save/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.7291822762728806</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.7408833213159178</v>
-      </c>
-      <c r="AE9" t="inlineStr"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1344,7 +1275,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ednet_small</t>
+          <t>assistments15</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1357,10 +1288,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1377,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M10" t="n">
         <v>10</v>
@@ -1386,52 +1317,45 @@
         <v>1000</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>50</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7302954341083335</v>
+        <v>0.7239784489941277</v>
       </c>
       <c r="T10" t="n">
-        <v>0.729776604503234</v>
+        <v>0.7258617452338744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7395538974856193</v>
+        <v>0.7419649422270552</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7382720066265097</v>
+        <v>0.7460276979907222</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>runs/sakt/ednet_small/</t>
+          <t>runs/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>save/sakt/ednet_small/</t>
+          <t>save/sakt/assistments15/</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.7317217089035926</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.7445899579489591</v>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1439,14 +1363,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>assistments15</t>
+          <t>spanish</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -1481,52 +1405,27 @@
         <v>1000</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>50</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.7231256800668204</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.7218192266459442</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.7404467687728077</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.7406981296583435</v>
-      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.7213117198135091</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.7395051717392485</v>
-      </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1534,11 +1433,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>assistments15</t>
+          <t>spanish</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>400</v>
@@ -1567,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
@@ -1576,52 +1475,27 @@
         <v>1000</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>50</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.7252309012629296</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.7256730357046387</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.7438735341684115</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.7447852826650468</v>
-      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.7214470528719927</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.7390711809838021</v>
-      </c>
-      <c r="AE12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1629,14 +1503,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>assistments15</t>
+          <t>spanish</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -1671,52 +1545,27 @@
         <v>1000</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>50</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.7252309012629296</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.7256730357046387</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.7438735341684115</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.7447852826650468</v>
-      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments15/</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.7214470528719927</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.7390711809838021</v>
-      </c>
-      <c r="AE13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1724,20 +1573,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spanish</t>
+          <t>assistments17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E14" t="n">
         <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>0.25</v>
@@ -1766,52 +1615,27 @@
         <v>1000</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>50</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.8471547486891381</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.846719831971309</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8711693883309797</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.8724230843384392</v>
-      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>runs/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>save/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.8486566907274811</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.8734569983668917</v>
-      </c>
-      <c r="AE14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1819,20 +1643,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spanish</t>
+          <t>assistments17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
         <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>0.25</v>
@@ -1852,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="M15" t="n">
         <v>10</v>
@@ -1861,52 +1685,27 @@
         <v>1000</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>50</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.8465586523051113</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.8445632719479719</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.8697209211617187</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.8697250360782748</v>
-      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>runs/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>save/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.8462724473369931</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.8705379003270556</v>
-      </c>
-      <c r="AE15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1914,20 +1713,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spanish</t>
+          <t>assistments17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>0.25</v>
@@ -1947,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M16" t="n">
         <v>10</v>
@@ -1956,52 +1755,27 @@
         <v>1000</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>50</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.8464277770874986</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.8464402512384425</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.8721802698097919</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.8725752069415459</v>
-      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>runs/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>save/sakt/spanish/</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.8469055422307753</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.8724452142527253</v>
-      </c>
-      <c r="AE16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2013,10 +1787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" t="n">
         <v>50</v>
@@ -2042,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>10</v>
@@ -2051,52 +1825,27 @@
         <v>1000</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>50</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.7552297654837475</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.7612461224930713</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.7594100492265659</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.7646701881050815</v>
-      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.7617686800480514</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.766738718558008</v>
-      </c>
-      <c r="AE17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2117,7 +1866,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
         <v>0.25</v>
@@ -2137,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>10</v>
@@ -2146,52 +1895,27 @@
         <v>1000</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>50</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.752978759212986</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.7619473033559458</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.7576193498318095</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7660938870679785</v>
-      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v>54</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.7611526825651136</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.7660153587260176</v>
-      </c>
-      <c r="AE18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2199,11 +1923,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>statics</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>200</v>
@@ -2212,10 +1936,10 @@
         <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2241,52 +1965,27 @@
         <v>1000</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>50</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.7548517704755524</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.7609108235201681</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.7590182726411452</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.7640839520204497</v>
-      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB19" t="n">
-        <v>47</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.7583597436926315</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.764040838858294</v>
-      </c>
-      <c r="AE19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2294,23 +1993,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>statics</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n">
         <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2327,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M20" t="n">
         <v>10</v>
@@ -2336,52 +2035,27 @@
         <v>1000</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>50</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.7578807882445413</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.7630008575814705</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.7614841414302942</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.7656717133392368</v>
-      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.7629270193358244</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.765740481738573</v>
-      </c>
-      <c r="AE20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2389,23 +2063,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>statics</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E21" t="n">
         <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2422,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="M21" t="n">
         <v>10</v>
@@ -2431,52 +2105,27 @@
         <v>1000</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>50</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.7598844601502921</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.7662801023784656</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.765094294296495</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.7692846611419053</v>
-      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.7663542964631391</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.769506576677766</v>
-      </c>
-      <c r="AE21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2484,11 +2133,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>ednet_small</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>200</v>
@@ -2497,10 +2146,10 @@
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2517,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M22" t="n">
         <v>10</v>
@@ -2526,52 +2175,27 @@
         <v>1000</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>50</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.7694056931415603</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.7645812471377993</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.7725389204396963</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.7684149664055281</v>
-      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB22" t="n">
-        <v>58</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.7651227132303183</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.7683356799992469</v>
-      </c>
-      <c r="AE22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2579,11 +2203,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>ednet_small</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>200</v>
@@ -2592,10 +2216,10 @@
         <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2612,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M23" t="n">
         <v>10</v>
@@ -2621,52 +2245,27 @@
         <v>1000</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>50</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.7610732898063912</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7662647126346974</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.7649134468854292</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.7697544394747048</v>
-      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.7663406585558541</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.769279079732473</v>
-      </c>
-      <c r="AE23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2674,11 +2273,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>ednet_small</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>400</v>
@@ -2687,10 +2286,10 @@
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2707,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M24" t="n">
         <v>10</v>
@@ -2716,48 +2315,27 @@
         <v>1000</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>50</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.7631063151959554</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.7681197547323961</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.7665601215660448</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.7697907626996063</v>
-      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>49</v>
-      </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2765,11 +2343,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>assistments15</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>400</v>
@@ -2778,7 +2356,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
         <v>0.25</v>
@@ -2798,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="M25" t="n">
         <v>10</v>
@@ -2807,16 +2385,16 @@
         <v>1000</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>50</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2825,22 +2403,9 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2848,23 +2413,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>assistments17</t>
+          <t>assistments15</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2881,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="M26" t="n">
         <v>10</v>
@@ -2890,16 +2455,16 @@
         <v>1000</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>50</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2908,22 +2473,639 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>runs/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>save/sakt/assistments17/</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>assistments15</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" t="n">
+        <v>150</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>300</v>
+      </c>
+      <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" t="n">
+        <v>150</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>400</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>300</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>150</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>assistments17</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>150</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>assistments17</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" t="n">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>assistments17</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="n">
+        <v>600</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>assistments17</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>400</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" t="n">
+        <v>150</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>assistments17</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" t="n">
+        <v>150</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
